--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB5465-3137-41B6-ACB3-32F42F6470F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B86E6A-B756-4C0F-99A7-E83EF69D8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -124,12 +124,6 @@
     <t>yesNo</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>Select school name</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]{2}$')</t>
-  </si>
-  <si>
     <t>Select school ID</t>
   </si>
   <si>
@@ -247,12 +238,6 @@
     <t>join(' ', ${u_code_id})</t>
   </si>
   <si>
-    <t>lr_sch_sth_impact_202401_4_urine_filtration</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 3. SCH/STH – Urine Form</t>
-  </si>
-  <si>
     <t>u_subdistrict</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>u_school_id</t>
   </si>
   <si>
-    <t>lr_u_202401</t>
-  </si>
-  <si>
     <t>u_samples_batch</t>
   </si>
   <si>
@@ -335,6 +317,33 @@
   </si>
   <si>
     <t>regex(., '^(?:[1-9]|[12]\d|3[0-2])$')</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH – Urine Form V1.2</t>
+  </si>
+  <si>
+    <t>. &gt; 9 and . &lt; 100</t>
+  </si>
+  <si>
+    <t>lr_u_202401_v12</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>u_add_result</t>
+  </si>
+  <si>
+    <t>Do you want to add an urine result</t>
+  </si>
+  <si>
+    <t>${u_add_result} = 'Yes'</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_4_urine_v1_2</t>
   </si>
 </sst>
 </file>
@@ -917,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -951,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -963,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -981,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="31.5">
@@ -992,17 +1001,17 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1020,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9"/>
@@ -1039,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
@@ -1061,10 +1070,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
@@ -1080,13 +1089,13 @@
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9"/>
@@ -1105,18 +1114,18 @@
         <v>11</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1128,13 +1137,13 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
@@ -1142,7 +1151,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1150,13 +1159,13 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
@@ -1170,13 +1179,13 @@
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1">
       <c r="A10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="C10" s="34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="33"/>
@@ -1184,7 +1193,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1192,13 +1201,13 @@
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="63">
       <c r="A11" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="33"/>
@@ -1206,7 +1215,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1217,18 +1226,18 @@
         <v>13</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
       <c r="F12" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1238,158 +1247,182 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1">
-      <c r="A13" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="47.25">
+      <c r="A13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" s="21" customFormat="1" ht="31.5">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1">
+      <c r="A14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="42"/>
       <c r="J14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" s="7" customFormat="1">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="31.5">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="10" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
       <c r="F16" s="10"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="H16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
-      <c r="M16" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" ht="31.5">
+    </row>
+    <row r="17" spans="1:13" s="7" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="10"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I17" s="22" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" ht="31.5">
+      <c r="M17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="7" customFormat="1" ht="31.5">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="22"/>
       <c r="F18" s="10"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I18" s="22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="7" customFormat="1">
+    <row r="19" spans="1:13" s="7" customFormat="1" ht="31.5">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" s="7" customFormat="1">
       <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
@@ -1409,30 +1442,28 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:13" s="7" customFormat="1">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:12" s="7" customFormat="1">
-      <c r="A22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -1445,19 +1476,37 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+    <row r="23" spans="1:13" s="7" customFormat="1">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,7 +1520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1490,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>24</v>
@@ -1511,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1522,10 +1571,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1535,13 +1584,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -1550,57 +1599,57 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>91</v>
-      </c>
       <c r="C9" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1616,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1629,24 +1678,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B86E6A-B756-4C0F-99A7-E83EF69D8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA0628-FA88-4216-B456-47E885561B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -253,9 +253,6 @@
     <t xml:space="preserve">How many samples were collected in this school? </t>
   </si>
   <si>
-    <t>The number of samples collected must be between 1 and 32</t>
-  </si>
-  <si>
     <t>0 = None</t>
   </si>
   <si>
@@ -316,12 +313,6 @@
     <t>if(${u_sh_egg_per_10ml} &gt; 0 and ${u_sh_egg_per_10ml} &lt; 50, 1, 0)</t>
   </si>
   <si>
-    <t>regex(., '^(?:[1-9]|[12]\d|3[0-2])$')</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 3. SCH/STH – Urine Form V1.2</t>
-  </si>
-  <si>
     <t>. &gt; 9 and . &lt; 100</t>
   </si>
   <si>
@@ -344,6 +335,12 @@
   </si>
   <si>
     <t>lr_sch_sth_impact_202401_4_urine_v1_2</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 4. SCH/STH – Urine Form V1.2</t>
+  </si>
+  <si>
+    <t>select_one yesNo</t>
   </si>
 </sst>
 </file>
@@ -928,11 +925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="F6:G6"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1008,7 +1005,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>62</v>
@@ -1109,7 +1106,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="15" customFormat="1" ht="47.25">
+    <row r="7" spans="1:13" s="15" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -1117,16 +1114,12 @@
         <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
@@ -1162,7 +1155,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>63</v>
@@ -1221,24 +1214,20 @@
       <c r="K11" s="18"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="47.25">
+    <row r="12" spans="1:13" s="20" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
@@ -1266,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
@@ -1277,20 +1266,20 @@
     </row>
     <row r="14" spans="1:13" s="20" customFormat="1">
       <c r="A14" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="40"/>
       <c r="F14" s="42"/>
       <c r="G14" s="41"/>
       <c r="H14" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="9" t="s">
@@ -1318,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
@@ -1342,7 +1331,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="23"/>
       <c r="H16" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="10" t="s">
@@ -1366,7 +1355,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="23"/>
       <c r="H17" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>35</v>
@@ -1383,7 +1372,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1391,10 +1380,10 @@
       <c r="F18" s="10"/>
       <c r="G18" s="23"/>
       <c r="H18" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="22"/>
@@ -1405,7 +1394,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1413,10 +1402,10 @@
       <c r="F19" s="10"/>
       <c r="G19" s="23"/>
       <c r="H19" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="22"/>
@@ -1520,7 +1509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1560,10 +1549,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1571,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1584,13 +1573,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -1599,57 +1588,57 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1665,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1689,10 +1678,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>39</v>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA0628-FA88-4216-B456-47E885561B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFFD21-EB4F-40A5-A090-506963DE53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -316,9 +316,6 @@
     <t>. &gt; 9 and . &lt; 100</t>
   </si>
   <si>
-    <t>lr_u_202401_v12</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -334,13 +331,16 @@
     <t>${u_add_result} = 'Yes'</t>
   </si>
   <si>
-    <t>lr_sch_sth_impact_202401_4_urine_v1_2</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 4. SCH/STH – Urine Form V1.2</t>
-  </si>
-  <si>
     <t>select_one yesNo</t>
+  </si>
+  <si>
+    <t>lr_u_202401_v2</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 4. SCH/STH – Urine Form V2</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_4_urine_v2</t>
   </si>
 </sst>
 </file>
@@ -925,11 +925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1155,7 +1155,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>63</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="12" spans="1:13" s="20" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
@@ -1255,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
@@ -1279,7 +1279,7 @@
       <c r="F14" s="42"/>
       <c r="G14" s="41"/>
       <c r="H14" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="9" t="s">
@@ -1307,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
@@ -1331,7 +1331,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="23"/>
       <c r="H16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="10" t="s">
@@ -1355,7 +1355,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="23"/>
       <c r="H17" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>35</v>
@@ -1380,7 +1380,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="23"/>
       <c r="H18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>90</v>
@@ -1402,7 +1402,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="23"/>
       <c r="H19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>91</v>
@@ -1549,10 +1549,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1560,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1681,7 +1681,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>39</v>

--- a/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Liberia/lr_sch_sth_impact_202401_4_urine_filtration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Liberia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFFD21-EB4F-40A5-A090-506963DE53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8F7AB-2790-4B48-B3FA-9FFC6980DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,12 +172,6 @@
     <t>Record code</t>
   </si>
   <si>
-    <t>Select the council</t>
-  </si>
-  <si>
-    <t>Select ward</t>
-  </si>
-  <si>
     <t>Select school name</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>join(' ', ${u_code_id})</t>
   </si>
   <si>
-    <t>u_subdistrict</t>
-  </si>
-  <si>
     <t>u_school_name</t>
   </si>
   <si>
@@ -334,13 +325,22 @@
     <t>select_one yesNo</t>
   </si>
   <si>
-    <t>lr_u_202401_v2</t>
-  </si>
-  <si>
-    <t>(2024 Jan) - 4. SCH/STH – Urine Form V2</t>
-  </si>
-  <si>
-    <t>lr_sch_sth_impact_202401_4_urine_v2</t>
+    <t>Select the district</t>
+  </si>
+  <si>
+    <t>u_location</t>
+  </si>
+  <si>
+    <t>Select the location</t>
+  </si>
+  <si>
+    <t>lr_u_202401_v2_1</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 4. SCH/STH – Urine Form V2.1</t>
+  </si>
+  <si>
+    <t>lr_sch_sth_impact_202401_4_urine_v2_1</t>
   </si>
 </sst>
 </file>
@@ -1001,14 +1001,14 @@
         <v>44</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9"/>
@@ -1045,10 +1045,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
@@ -1067,10 +1067,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
@@ -1089,10 +1089,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9"/>
@@ -1111,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9"/>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1" ht="31.5">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
@@ -1144,7 +1144,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="33"/>
@@ -1186,7 +1186,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="63">
       <c r="A11" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="33"/>
@@ -1208,7 +1208,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="12" spans="1:13" s="20" customFormat="1">
       <c r="A12" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
@@ -1241,21 +1241,21 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
       <c r="F13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
@@ -1266,20 +1266,20 @@
     </row>
     <row r="14" spans="1:13" s="20" customFormat="1">
       <c r="A14" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="40"/>
       <c r="F14" s="42"/>
       <c r="G14" s="41"/>
       <c r="H14" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="9" t="s">
@@ -1307,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
@@ -1331,7 +1331,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="23"/>
       <c r="H16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="10" t="s">
@@ -1355,7 +1355,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="23"/>
       <c r="H17" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>35</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="18" spans="1:13" s="7" customFormat="1" ht="31.5">
       <c r="A18" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1380,10 +1380,10 @@
       <c r="F18" s="10"/>
       <c r="G18" s="23"/>
       <c r="H18" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="22"/>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="19" spans="1:13" s="7" customFormat="1" ht="31.5">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1402,10 +1402,10 @@
       <c r="F19" s="10"/>
       <c r="G19" s="23"/>
       <c r="H19" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="22"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
@@ -1549,10 +1549,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1560,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1573,13 +1573,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -1588,57 +1588,57 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="C6" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
